--- a/src/test/resources/SignIn_clickbuy.xlsx
+++ b/src/test/resources/SignIn_clickbuy.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Test\Automation_Test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Test\Automation_HP\Automation_Test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="phonenumber" sheetId="1" r:id="rId1"/>
-    <sheet name="password" sheetId="2" r:id="rId2"/>
+    <sheet name="signin_SC" sheetId="3" r:id="rId1"/>
+    <sheet name="phonenumber" sheetId="1" r:id="rId2"/>
+    <sheet name="password" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>phonenumber</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Huongabcd</t>
   </si>
   <si>
-    <t xml:space="preserve">                                               </t>
-  </si>
-  <si>
     <t xml:space="preserve">Huong2003                  </t>
   </si>
   <si>
@@ -87,15 +85,9 @@
     <t>&lt;script&gt;alert('hack')&lt;/script&gt;987654321</t>
   </si>
   <si>
-    <t>0332😊09523</t>
-  </si>
-  <si>
     <t xml:space="preserve">Huong2003      </t>
   </si>
   <si>
-    <t>084332019523</t>
-  </si>
-  <si>
     <t>033201</t>
   </si>
   <si>
@@ -114,7 +106,46 @@
     <t xml:space="preserve"> expectedError</t>
   </si>
   <si>
-    <t>Lỗi, Thông tin đăng nhập không đúng!</t>
+    <t>Huong2003</t>
+  </si>
+  <si>
+    <t>0367253975</t>
+  </si>
+  <si>
+    <t>Bỏ trống SĐT</t>
+  </si>
+  <si>
+    <t>Bỏ trống MK</t>
+  </si>
+  <si>
+    <t>TK không tồn tại</t>
+  </si>
+  <si>
+    <t>Bỏ trống cả 2 trường</t>
+  </si>
+  <si>
+    <t>× Lỗi Thông tin đăng nhập không đúng!.</t>
+  </si>
+  <si>
+    <t>× Lỗi không nhập SĐT vượt quá 10 chữ số!.</t>
+  </si>
+  <si>
+    <t>033201952</t>
+  </si>
+  <si>
+    <t>Huong2004</t>
+  </si>
+  <si>
+    <t>× Lỗi không nhập SĐT ít hơn 10 chữ số!.</t>
+  </si>
+  <si>
+    <t>× Lỗi Không cho phép nhập kí tự chữ!.</t>
+  </si>
+  <si>
+    <t>× Lỗi Yêu cầu MK có chứa chữ số in hoa, in thường và số!.</t>
+  </si>
+  <si>
+    <t>× Không nhập MK ít hơn 6 kí tự!.</t>
   </si>
 </sst>
 </file>
@@ -185,9 +216,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +228,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -482,203 +513,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="30">
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A12" s="7" t="s">
+    <row r="5" spans="1:3" s="4" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" ht="29.25" thickBot="1">
-      <c r="A16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1">
+      <c r="C11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -688,128 +592,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" thickBot="1">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" thickBot="1">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.75" thickBot="1">
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.75" thickBot="1">
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" thickBot="1">
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>12342003</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75" thickBot="1">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" thickBot="1">
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.75" thickBot="1">
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75" thickBot="1">
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="73.5" thickBot="1">
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" thickBot="1">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36.75" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-123456</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-123456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/SignIn_clickbuy.xlsx
+++ b/src/test/resources/SignIn_clickbuy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Test\Automation_HP\Automation_Test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Test\Automation_Test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,9 +124,6 @@
     <t>Bỏ trống cả 2 trường</t>
   </si>
   <si>
-    <t>× Lỗi Thông tin đăng nhập không đúng!.</t>
-  </si>
-  <si>
     <t>× Lỗi không nhập SĐT vượt quá 10 chữ số!.</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>× Không nhập MK ít hơn 6 kí tự!.</t>
+  </si>
+  <si>
+    <t>×LỗiThông tin đăng nhập không đúng!.</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,7 +542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="30">
+    <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,9 +603,10 @@
     <col min="1" max="1" width="22.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -616,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -624,10 +625,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -635,21 +636,21 @@
         <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -657,10 +658,11 @@
         <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -668,10 +670,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -679,10 +681,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -690,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -701,10 +703,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -712,10 +714,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -723,10 +725,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -734,10 +736,10 @@
         <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -745,10 +747,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -756,10 +758,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -767,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -780,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" thickBot="1">
@@ -821,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
@@ -832,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
@@ -843,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.75" customHeight="1" thickBot="1">
@@ -854,7 +856,7 @@
         <v>12342003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" thickBot="1">
@@ -865,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" thickBot="1">
@@ -876,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1" thickBot="1">
@@ -887,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -898,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.75" customHeight="1" thickBot="1">
@@ -909,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36.75" customHeight="1" thickBot="1">
@@ -920,7 +922,7 @@
         <v>-123456</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.75" customHeight="1" thickBot="1">
@@ -931,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/SignIn_clickbuy.xlsx
+++ b/src/test/resources/SignIn_clickbuy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Test\Automation_Test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Test\Automation_HP\Automation_Test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="signin_SC" sheetId="3" r:id="rId1"/>
@@ -124,28 +124,28 @@
     <t>Bỏ trống cả 2 trường</t>
   </si>
   <si>
-    <t>× Lỗi không nhập SĐT vượt quá 10 chữ số!.</t>
-  </si>
-  <si>
     <t>033201952</t>
   </si>
   <si>
     <t>Huong2004</t>
   </si>
   <si>
-    <t>× Lỗi không nhập SĐT ít hơn 10 chữ số!.</t>
-  </si>
-  <si>
-    <t>× Lỗi Không cho phép nhập kí tự chữ!.</t>
-  </si>
-  <si>
-    <t>× Lỗi Yêu cầu MK có chứa chữ số in hoa, in thường và số!.</t>
-  </si>
-  <si>
-    <t>× Không nhập MK ít hơn 6 kí tự!.</t>
-  </si>
-  <si>
-    <t>×LỗiThông tin đăng nhập không đúng!.</t>
+    <t>Thông tin đăng nhập không đúng!.</t>
+  </si>
+  <si>
+    <t>Không cho phép nhập kí tự chữ!.</t>
+  </si>
+  <si>
+    <t>không nhập SĐT vượt quá 10 chữ số!.</t>
+  </si>
+  <si>
+    <t>không nhập SĐT ít hơn 10 chữ số!.</t>
+  </si>
+  <si>
+    <t>Yêu cầu MK có chứa chữ số in hoa, in thường và số!.</t>
+  </si>
+  <si>
+    <t>Không nhập MK ít hơn 6 kí tự!.</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -625,10 +625,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -636,18 +636,18 @@
         <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
@@ -658,11 +658,11 @@
         <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -670,10 +670,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -681,7 +681,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
@@ -691,85 +691,85 @@
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="29.25" thickBot="1">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>39</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -811,8 +811,8 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
+      <c r="C2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" thickBot="1">
@@ -822,8 +822,8 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
@@ -833,8 +833,8 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
+      <c r="C4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
@@ -844,8 +844,8 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
+      <c r="C5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.75" customHeight="1" thickBot="1">
@@ -856,7 +856,7 @@
         <v>12342003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" thickBot="1">
@@ -866,8 +866,8 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
+      <c r="C7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" customHeight="1" thickBot="1">
@@ -877,8 +877,8 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1" thickBot="1">
@@ -888,8 +888,8 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -899,8 +899,8 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.75" customHeight="1" thickBot="1">
@@ -910,8 +910,8 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36.75" customHeight="1" thickBot="1">
@@ -922,7 +922,7 @@
         <v>-123456</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.75" customHeight="1" thickBot="1">
@@ -933,10 +933,11 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>